--- a/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1960.xlsx
+++ b/Annual Report on Exchange Arrangements and Exchange Restrictions主题分析/AnnualReportonExchangeArrangementsandExchangeRestrictions1960.xlsx
@@ -37,19 +37,19 @@
     <t>主题5</t>
   </si>
   <si>
-    <t>0.003*"import" + 0.002*"payment" + 0.002*"foreign" + 0.002*"account" + 0.002*"may" + 0.002*"currency" + 0.002*"exchange" + 0.002*"per" + 0.002*"bank" + 0.002*"export"</t>
-  </si>
-  <si>
-    <t>0.024*"import" + 0.021*"exchange" + 0.015*"payment" + 0.015*"currency" + 0.015*"export" + 0.015*"account" + 0.014*"may" + 0.014*"foreign" + 0.012*"country" + 0.012*"rate"</t>
-  </si>
-  <si>
-    <t>0.002*"import" + 0.001*"may" + 0.001*"exchange" + 0.001*"export" + 0.001*"currency" + 0.001*"payment" + 0.001*"foreign" + 0.001*"account" + 0.001*"license" + 0.001*"country"</t>
-  </si>
-  <si>
-    <t>0.004*"exchange" + 0.003*"import" + 0.003*"may" + 0.003*"foreign" + 0.002*"payment" + 0.002*"currency" + 0.002*"account" + 0.002*"license" + 0.002*"rate" + 0.002*"export"</t>
-  </si>
-  <si>
-    <t>0.002*"exchange" + 0.002*"import" + 0.002*"payment" + 0.002*"country" + 0.002*"currency" + 0.002*"account" + 0.002*"foreign" + 0.002*"rate" + 0.002*"export" + 0.002*"bank"</t>
+    <t>0.091*"import" + 0.036*"license" + 0.031*"country" + 0.024*"export" + 0.019*"good" + 0.019*"currency" + 0.016*"convertible" + 0.016*"list" + 0.013*"payment" + 0.011*"require"</t>
+  </si>
+  <si>
+    <t>0.040*"account" + 0.038*"payment" + 0.026*"may" + 0.025*"exchange" + 0.023*"foreign" + 0.019*"area" + 0.019*"capital" + 0.018*"sterling" + 0.018*"resident" + 0.018*"bank"</t>
+  </si>
+  <si>
+    <t>0.065*"rate" + 0.037*"exchange" + 0.035*"currency" + 0.022*"redistribution" + 0.020*"foreign" + 0.019*"official" + 0.015*"system" + 0.013*"change" + 0.013*"january" + 0.012*"value"</t>
+  </si>
+  <si>
+    <t>0.063*"per" + 0.044*"fund" + 0.042*"cent" + 0.039*"monetary" + 0.034*"international" + 0.025*"dollar" + 0.024*"bank" + 0.021*"u" + 0.013*"import" + 0.012*"exchange"</t>
+  </si>
+  <si>
+    <t>0.053*"export" + 0.036*"proceeds" + 0.023*"free" + 0.023*"exchange" + 0.020*"market" + 0.020*"must" + 0.018*"import" + 0.016*"sell" + 0.013*"may" + 0.013*"good"</t>
   </si>
 </sst>
 </file>
